--- a/sneakerpark-final.xlsx
+++ b/sneakerpark-final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arpitsharma/Desktop/ML/09_Udacity/06-Udacity_Data_Architect/Project_4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1245879-1075-A94E-AC98-EEEB2FF6C171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2035555F-B2FF-2F47-AE7D-D35F877804CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="520" windowWidth="28800" windowHeight="16420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="520" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Dictionary" sheetId="1" r:id="rId1"/>
@@ -84,6 +84,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Is this column NULL-able?</t>
         </r>
@@ -96,6 +97,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Does each row in this table have a unique value?</t>
         </r>
@@ -108,6 +110,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Typically this information would come from a subject-matter-expert at the company. For the purposes of this project, please make an educated guess.</t>
         </r>
@@ -120,6 +123,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>An example of a value that is typically found in this column.</t>
         </r>
@@ -132,6 +136,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Is this column part of the Primary Key?</t>
         </r>
@@ -144,6 +149,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Is this column a Foreign Key that points to another table?</t>
         </r>
@@ -169,6 +175,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>If this column is a Foreign Key, what is the name of this column in the parent table? If it's not a Foreign Key, put N/A.</t>
         </r>
@@ -244,6 +251,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>How should this data be categorized in terms of its confidentiality? (confidential, highly confidential, public, internal)</t>
         </r>
@@ -256,6 +264,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Who is going to be responsible for managing this data? Feel free to put "TBD" for now.</t>
         </r>
@@ -306,6 +315,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>What data quality dimension does this fall under?</t>
         </r>
@@ -383,6 +393,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">What element does this naming convention apply to - Tables, Columns, Databases, etc.
 </t>
@@ -396,6 +407,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>What category of convention is this?</t>
         </r>
@@ -418,6 +430,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Term that the only official term used to refer to this concept across the organization. It is important for the organization to agree on common vocabulary in order to improve communication and avoid data quality problems.</t>
         </r>
@@ -430,6 +443,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Some synonyms that may informally be used by some departments, teams, or products, but are not accepted as a formal term for this concept by the organization. 
 </t>
@@ -2654,7 +2668,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000%"/>
+    <numFmt numFmtId="164" formatCode="0.000%"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -3238,12 +3252,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="1" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3255,9 +3269,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -3288,20 +3299,8 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3337,9 +3336,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3375,17 +3371,58 @@
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3405,46 +3442,23 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3469,7 +3483,6 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Technical_details"/>
-      <sheetName val="Documentation"/>
       <sheetName val="Data Catalog"/>
     </sheetNames>
     <sheetDataSet>
@@ -3484,9 +3497,6 @@
           <cell r="D1" t="str">
             <v>Uptime</v>
           </cell>
-          <cell r="E1" t="str">
-            <v>Integration</v>
-          </cell>
         </row>
         <row r="2">
           <cell r="B2" t="str">
@@ -3497,9 +3507,6 @@
           </cell>
           <cell r="D2">
             <v>0.99999000000000005</v>
-          </cell>
-          <cell r="E2" t="str">
-            <v>Integration with other systems</v>
           </cell>
         </row>
         <row r="3">
@@ -3512,9 +3519,6 @@
           <cell r="D3">
             <v>0.99</v>
           </cell>
-          <cell r="E3" t="str">
-            <v>Nightly Batches</v>
-          </cell>
         </row>
         <row r="4">
           <cell r="B4" t="str">
@@ -3526,13 +3530,10 @@
           <cell r="D4" t="str">
             <v> 99.99%</v>
           </cell>
-          <cell r="E4" t="str">
-            <v>Integration with other systems</v>
-          </cell>
         </row>
         <row r="5">
           <cell r="B5" t="str">
-            <v>Order Processing Service</v>
+            <v>Order Processing Service </v>
           </cell>
           <cell r="C5" t="str">
             <v>processes orders and stores order details.</v>
@@ -3540,13 +3541,10 @@
           <cell r="D5">
             <v>0.99999000000000005</v>
           </cell>
-          <cell r="E5" t="str">
-            <v>Integration with other systems</v>
-          </cell>
         </row>
         <row r="6">
           <cell r="B6" t="str">
-            <v>Customer Service Application </v>
+            <v>Customer Service Application</v>
           </cell>
           <cell r="C6" t="str">
             <v>records customer support request information from customer service calls and emails.</v>
@@ -3554,13 +3552,9 @@
           <cell r="D6">
             <v>0.99999000000000005</v>
           </cell>
-          <cell r="E6" t="str">
-            <v>Nightly Batches</v>
-          </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3769,11 +3763,11 @@
   </sheetPr>
   <dimension ref="A1:Y489"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="U34" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J37" sqref="J37"/>
+      <selection pane="bottomRight" activeCell="U1" sqref="U1:U1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3794,7 +3788,7 @@
     <col min="15" max="15" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="24.1640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="26" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5" customWidth="1"/>
+    <col min="21" max="21" width="14.5" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="20.6640625" style="24" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3841,34 +3835,34 @@
       <c r="N1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="49" t="s">
+      <c r="O1" s="44" t="s">
         <v>562</v>
       </c>
-      <c r="P1" s="49" t="s">
+      <c r="P1" s="44" t="s">
         <v>289</v>
       </c>
-      <c r="Q1" s="49" t="s">
+      <c r="Q1" s="44" t="s">
         <v>290</v>
       </c>
-      <c r="R1" s="49" t="s">
+      <c r="R1" s="44" t="s">
         <v>291</v>
       </c>
-      <c r="S1" s="49" t="s">
+      <c r="S1" s="44" t="s">
         <v>292</v>
       </c>
-      <c r="T1" s="49" t="s">
+      <c r="T1" s="44" t="s">
         <v>293</v>
       </c>
-      <c r="U1" s="49" t="s">
+      <c r="U1" s="44" t="s">
         <v>354</v>
       </c>
-      <c r="V1" s="49" t="s">
+      <c r="V1" s="44" t="s">
         <v>355</v>
       </c>
-      <c r="W1" s="49" t="s">
+      <c r="W1" s="44" t="s">
         <v>535</v>
       </c>
-      <c r="X1" s="49" t="s">
+      <c r="X1" s="44" t="s">
         <v>538</v>
       </c>
       <c r="Y1" s="6" t="s">
@@ -4400,7 +4394,7 @@
       <c r="T9">
         <v>99658816711200</v>
       </c>
-      <c r="Y9" s="64" t="s">
+      <c r="Y9" s="59" t="s">
         <v>643</v>
       </c>
     </row>
@@ -4459,7 +4453,7 @@
       <c r="R10">
         <v>0</v>
       </c>
-      <c r="S10" s="50">
+      <c r="S10" s="45">
         <v>44563</v>
       </c>
       <c r="T10" t="s">
@@ -4577,7 +4571,7 @@
       <c r="N12" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="O12" s="59">
+      <c r="O12" s="54">
         <v>797</v>
       </c>
       <c r="P12">
@@ -4642,7 +4636,7 @@
       <c r="N13" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="O13" s="59">
+      <c r="O13" s="54">
         <v>797</v>
       </c>
       <c r="P13">
@@ -4707,7 +4701,7 @@
       <c r="N14" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="O14" s="59">
+      <c r="O14" s="54">
         <v>797</v>
       </c>
       <c r="P14">
@@ -4772,7 +4766,7 @@
       <c r="N15" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="O15" s="59">
+      <c r="O15" s="54">
         <v>797</v>
       </c>
       <c r="P15">
@@ -4790,7 +4784,7 @@
       <c r="T15" t="s">
         <v>306</v>
       </c>
-      <c r="U15" s="54" t="s">
+      <c r="U15" s="49" t="s">
         <v>494</v>
       </c>
       <c r="V15" s="14" t="s">
@@ -4849,7 +4843,7 @@
       <c r="N16" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="O16" s="59">
+      <c r="O16" s="54">
         <v>797</v>
       </c>
       <c r="P16">
@@ -4914,7 +4908,7 @@
       <c r="N17" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="O17" s="59">
+      <c r="O17" s="54">
         <v>797</v>
       </c>
       <c r="P17">
@@ -4979,7 +4973,7 @@
       <c r="N18" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="O18" s="59">
+      <c r="O18" s="54">
         <v>797</v>
       </c>
       <c r="P18">
@@ -4997,7 +4991,7 @@
       <c r="T18">
         <v>9</v>
       </c>
-      <c r="U18" s="57" t="s">
+      <c r="U18" s="52" t="s">
         <v>526</v>
       </c>
       <c r="V18" t="s">
@@ -5050,7 +5044,7 @@
       <c r="N19" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="O19" s="59">
+      <c r="O19" s="54">
         <v>797</v>
       </c>
       <c r="P19">
@@ -5115,7 +5109,7 @@
       <c r="N20" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="O20" s="59">
+      <c r="O20" s="54">
         <v>797</v>
       </c>
       <c r="P20">
@@ -5133,7 +5127,7 @@
       <c r="T20" t="s">
         <v>314</v>
       </c>
-      <c r="U20" s="54" t="s">
+      <c r="U20" s="49" t="s">
         <v>517</v>
       </c>
       <c r="V20" t="s">
@@ -5192,7 +5186,7 @@
       <c r="N21" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="O21" s="59">
+      <c r="O21" s="54">
         <v>797</v>
       </c>
       <c r="P21">
@@ -5210,7 +5204,7 @@
       <c r="T21" t="s">
         <v>316</v>
       </c>
-      <c r="U21" s="55" t="s">
+      <c r="U21" s="50" t="s">
         <v>458</v>
       </c>
       <c r="V21" t="s">
@@ -5287,7 +5281,7 @@
       <c r="T22" t="s">
         <v>318</v>
       </c>
-      <c r="U22" s="52" t="s">
+      <c r="U22" s="47" t="s">
         <v>523</v>
       </c>
       <c r="V22" t="s">
@@ -5559,7 +5553,7 @@
       <c r="T26" t="s">
         <v>306</v>
       </c>
-      <c r="U26" s="54" t="s">
+      <c r="U26" s="49" t="s">
         <v>459</v>
       </c>
       <c r="V26" s="14" t="s">
@@ -5636,7 +5630,7 @@
       <c r="T27" t="s">
         <v>320</v>
       </c>
-      <c r="U27" s="58" t="s">
+      <c r="U27" s="53" t="s">
         <v>442</v>
       </c>
       <c r="V27" t="s">
@@ -5713,7 +5707,7 @@
       <c r="T28" t="s">
         <v>310</v>
       </c>
-      <c r="U28" s="54" t="s">
+      <c r="U28" s="49" t="s">
         <v>410</v>
       </c>
       <c r="V28" t="s">
@@ -5850,7 +5844,7 @@
       <c r="T30">
         <v>9</v>
       </c>
-      <c r="U30" s="57" t="s">
+      <c r="U30" s="52" t="s">
         <v>527</v>
       </c>
       <c r="V30" t="s">
@@ -5922,7 +5916,7 @@
       <c r="T31" t="s">
         <v>324</v>
       </c>
-      <c r="U31" s="54" t="s">
+      <c r="U31" s="49" t="s">
         <v>400</v>
       </c>
       <c r="V31" t="s">
@@ -6194,7 +6188,7 @@
       <c r="T35" t="s">
         <v>330</v>
       </c>
-      <c r="U35" s="29"/>
+      <c r="U35" s="28"/>
       <c r="Y35" s="23" t="s">
         <v>662</v>
       </c>
@@ -6588,7 +6582,7 @@
       <c r="T41">
         <v>237.68</v>
       </c>
-      <c r="U41" s="58" t="s">
+      <c r="U41" s="53" t="s">
         <v>530</v>
       </c>
       <c r="V41" t="s">
@@ -6665,7 +6659,7 @@
       <c r="T42" t="s">
         <v>301</v>
       </c>
-      <c r="U42" s="56" t="s">
+      <c r="U42" s="51" t="s">
         <v>525</v>
       </c>
       <c r="V42" s="14" t="s">
@@ -6801,7 +6795,7 @@
       <c r="R44">
         <v>0</v>
       </c>
-      <c r="S44" s="51">
+      <c r="S44" s="46">
         <v>44136.762638888889</v>
       </c>
       <c r="T44" t="s">
@@ -7386,7 +7380,7 @@
       <c r="R53">
         <v>0</v>
       </c>
-      <c r="S53" s="50">
+      <c r="S53" s="45">
         <v>44140</v>
       </c>
       <c r="T53" t="s">
@@ -7439,7 +7433,7 @@
       <c r="N54" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="O54" s="59">
+      <c r="O54" s="54">
         <v>29</v>
       </c>
       <c r="P54">
@@ -7504,7 +7498,7 @@
       <c r="N55" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="O55" s="59">
+      <c r="O55" s="54">
         <v>29</v>
       </c>
       <c r="P55">
@@ -7569,7 +7563,7 @@
       <c r="N56" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="O56" s="59">
+      <c r="O56" s="54">
         <v>29</v>
       </c>
       <c r="P56">
@@ -7634,7 +7628,7 @@
       <c r="N57" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="O57" s="59">
+      <c r="O57" s="54">
         <v>29</v>
       </c>
       <c r="P57">
@@ -7699,7 +7693,7 @@
       <c r="N58" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="O58" s="59">
+      <c r="O58" s="54">
         <v>29</v>
       </c>
       <c r="P58">
@@ -7764,7 +7758,7 @@
       <c r="N59" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="O59" s="59">
+      <c r="O59" s="54">
         <v>29</v>
       </c>
       <c r="P59">
@@ -7829,7 +7823,7 @@
       <c r="N60" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="O60" s="59">
+      <c r="O60" s="54">
         <v>29</v>
       </c>
       <c r="P60">
@@ -7847,7 +7841,7 @@
       <c r="T60" t="s">
         <v>349</v>
       </c>
-      <c r="U60" s="29"/>
+      <c r="U60" s="28"/>
       <c r="Y60" s="22" t="s">
         <v>248</v>
       </c>
@@ -7895,7 +7889,7 @@
       <c r="N61" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="O61" s="59">
+      <c r="O61" s="54">
         <v>29</v>
       </c>
       <c r="P61">
@@ -7960,7 +7954,7 @@
       <c r="N62" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="O62" s="59">
+      <c r="O62" s="54">
         <v>29</v>
       </c>
       <c r="P62">
@@ -8025,7 +8019,7 @@
       <c r="N63" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="O63" s="59">
+      <c r="O63" s="54">
         <v>29</v>
       </c>
       <c r="P63">
@@ -15317,114 +15311,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="53"/>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
+      <c r="A1" s="48"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
     </row>
     <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="53">
+      <c r="A3" s="48">
         <v>1</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="48" t="s">
         <v>362</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53" t="s">
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48" t="s">
         <v>356</v>
       </c>
-      <c r="F3" s="53"/>
+      <c r="F3" s="48"/>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="53"/>
-      <c r="B4" s="53" t="s">
+      <c r="A4" s="48"/>
+      <c r="B4" s="48" t="s">
         <v>357</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="48" t="s">
         <v>358</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="53"/>
-      <c r="B5" s="53" t="s">
+      <c r="A5" s="48"/>
+      <c r="B5" s="48" t="s">
         <v>359</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="53"/>
-      <c r="B6" s="53" t="s">
+      <c r="A6" s="48"/>
+      <c r="B6" s="48" t="s">
         <v>360</v>
       </c>
-      <c r="C6" s="53">
+      <c r="C6" s="48">
         <v>18</v>
       </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
     </row>
     <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="53"/>
-      <c r="B7" s="53" t="s">
+      <c r="A7" s="48"/>
+      <c r="B7" s="48" t="s">
         <v>361</v>
       </c>
-      <c r="C7" s="53">
+      <c r="C7" s="48">
         <v>11</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="53"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="53">
+      <c r="A9" s="48">
         <v>2</v>
       </c>
       <c r="B9" t="s">
         <v>369</v>
       </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53" t="s">
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48" t="s">
         <v>356</v>
       </c>
-      <c r="F9" s="53"/>
+      <c r="F9" s="48"/>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="53"/>
-      <c r="B10" s="53" t="s">
+      <c r="A10" s="48"/>
+      <c r="B10" s="48" t="s">
         <v>363</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="48" t="s">
         <v>358</v>
       </c>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
@@ -15470,7 +15464,7 @@
       <c r="B17" t="s">
         <v>376</v>
       </c>
-      <c r="E17" s="53" t="s">
+      <c r="E17" s="48" t="s">
         <v>356</v>
       </c>
     </row>
@@ -15526,7 +15520,7 @@
       <c r="B25" t="s">
         <v>383</v>
       </c>
-      <c r="E25" s="53" t="s">
+      <c r="E25" s="48" t="s">
         <v>356</v>
       </c>
     </row>
@@ -15582,7 +15576,7 @@
       <c r="B33" t="s">
         <v>389</v>
       </c>
-      <c r="E33" s="53" t="s">
+      <c r="E33" s="48" t="s">
         <v>356</v>
       </c>
     </row>
@@ -15635,7 +15629,7 @@
       <c r="B41" t="s">
         <v>394</v>
       </c>
-      <c r="E41" s="53" t="s">
+      <c r="E41" s="48" t="s">
         <v>356</v>
       </c>
     </row>
@@ -15675,7 +15669,7 @@
       <c r="B47" t="s">
         <v>400</v>
       </c>
-      <c r="E47" s="53" t="s">
+      <c r="E47" s="48" t="s">
         <v>356</v>
       </c>
     </row>
@@ -15803,7 +15797,7 @@
       <c r="B65" s="14" t="s">
         <v>442</v>
       </c>
-      <c r="E65" s="53" t="s">
+      <c r="E65" s="48" t="s">
         <v>411</v>
       </c>
     </row>
@@ -15829,7 +15823,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B69" s="55" t="s">
+      <c r="B69" s="50" t="s">
         <v>416</v>
       </c>
       <c r="C69">
@@ -15837,7 +15831,7 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B70" s="55" t="s">
+      <c r="B70" s="50" t="s">
         <v>428</v>
       </c>
       <c r="C70">
@@ -15893,7 +15887,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B77" s="55" t="s">
+      <c r="B77" s="50" t="s">
         <v>436</v>
       </c>
       <c r="C77">
@@ -15901,7 +15895,7 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B78" s="55" t="s">
+      <c r="B78" s="50" t="s">
         <v>432</v>
       </c>
       <c r="C78">
@@ -15925,7 +15919,7 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B81" s="55" t="s">
+      <c r="B81" s="50" t="s">
         <v>433</v>
       </c>
       <c r="C81">
@@ -15933,7 +15927,7 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B82" s="55" t="s">
+      <c r="B82" s="50" t="s">
         <v>438</v>
       </c>
       <c r="C82">
@@ -16384,7 +16378,7 @@
       <c r="B142" t="s">
         <v>494</v>
       </c>
-      <c r="E142" s="53" t="s">
+      <c r="E142" s="48" t="s">
         <v>356</v>
       </c>
     </row>
@@ -16440,7 +16434,7 @@
       <c r="B150" t="s">
         <v>516</v>
       </c>
-      <c r="E150" s="53" t="s">
+      <c r="E150" s="48" t="s">
         <v>356</v>
       </c>
     </row>
@@ -16736,7 +16730,7 @@
   </sheetPr>
   <dimension ref="A1:L499"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
@@ -16808,17 +16802,17 @@
       <c r="H2" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="I2" s="13" t="str">
+      <c r="I2" s="13" t="e">
         <f>VLOOKUP(H2,[1]Technical_details!$B$1:$E$6,2,FALSE)</f>
-        <v>records customer support request information from customer service calls and emails.</v>
-      </c>
-      <c r="J2" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="J2" s="18" t="e">
         <f>VLOOKUP(H2,[1]Technical_details!$B$1:$E$6,3,FALSE)</f>
-        <v>0.99999000000000005</v>
-      </c>
-      <c r="K2" s="13" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="K2" s="13" t="e">
         <f>VLOOKUP(H2,[1]Technical_details!$B$1:$E$6,4,FALSE)</f>
-        <v>Nightly Batches</v>
+        <v>#N/A</v>
       </c>
       <c r="L2" s="13"/>
     </row>
@@ -16852,9 +16846,9 @@
         <f>VLOOKUP(H3,[1]Technical_details!$B$1:$E$6,3,FALSE)</f>
         <v>0.99</v>
       </c>
-      <c r="K3" s="4" t="str">
+      <c r="K3" s="4">
         <f>VLOOKUP(H3,[1]Technical_details!$B$1:$E$6,4,FALSE)</f>
-        <v>Nightly Batches</v>
+        <v>0</v>
       </c>
       <c r="L3" s="4"/>
     </row>
@@ -16888,9 +16882,9 @@
         <f>VLOOKUP(H4,[1]Technical_details!$B$1:$E$6,3,FALSE)</f>
         <v> 99.99%</v>
       </c>
-      <c r="K4" s="13" t="str">
+      <c r="K4" s="13">
         <f>VLOOKUP(H4,[1]Technical_details!$B$1:$E$6,4,FALSE)</f>
-        <v>Integration with other systems</v>
+        <v>0</v>
       </c>
       <c r="L4" s="13"/>
     </row>
@@ -16916,17 +16910,17 @@
       <c r="H5" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="I5" s="4" t="str">
+      <c r="I5" s="4" t="e">
         <f>VLOOKUP(H5,[1]Technical_details!$B$1:$E$6,2,FALSE)</f>
-        <v>processes orders and stores order details.</v>
-      </c>
-      <c r="J5" s="19">
+        <v>#N/A</v>
+      </c>
+      <c r="J5" s="19" t="e">
         <f>VLOOKUP(H5,[1]Technical_details!$B$1:$E$6,3,FALSE)</f>
-        <v>0.99999000000000005</v>
-      </c>
-      <c r="K5" s="4" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="K5" s="4" t="e">
         <f>VLOOKUP(H5,[1]Technical_details!$B$1:$E$6,4,FALSE)</f>
-        <v>Integration with other systems</v>
+        <v>#N/A</v>
       </c>
       <c r="L5" s="4"/>
     </row>
@@ -16952,17 +16946,17 @@
       <c r="H6" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="I6" s="13" t="str">
+      <c r="I6" s="13" t="e">
         <f>VLOOKUP(H6,[1]Technical_details!$B$1:$E$6,2,FALSE)</f>
-        <v>processes orders and stores order details.</v>
-      </c>
-      <c r="J6" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="J6" s="18" t="e">
         <f>VLOOKUP(H6,[1]Technical_details!$B$1:$E$6,3,FALSE)</f>
-        <v>0.99999000000000005</v>
-      </c>
-      <c r="K6" s="13" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="K6" s="13" t="e">
         <f>VLOOKUP(H6,[1]Technical_details!$B$1:$E$6,4,FALSE)</f>
-        <v>Integration with other systems</v>
+        <v>#N/A</v>
       </c>
       <c r="L6" s="13"/>
     </row>
@@ -16988,17 +16982,17 @@
       <c r="H7" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="I7" s="4" t="str">
+      <c r="I7" s="4" t="e">
         <f>VLOOKUP(H7,[1]Technical_details!$B$1:$E$6,2,FALSE)</f>
-        <v>processes orders and stores order details.</v>
-      </c>
-      <c r="J7" s="19">
+        <v>#N/A</v>
+      </c>
+      <c r="J7" s="19" t="e">
         <f>VLOOKUP(H7,[1]Technical_details!$B$1:$E$6,3,FALSE)</f>
-        <v>0.99999000000000005</v>
-      </c>
-      <c r="K7" s="4" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="K7" s="4" t="e">
         <f>VLOOKUP(H7,[1]Technical_details!$B$1:$E$6,4,FALSE)</f>
-        <v>Integration with other systems</v>
+        <v>#N/A</v>
       </c>
       <c r="L7" s="4"/>
     </row>
@@ -17033,9 +17027,9 @@
         <f>VLOOKUP(H8,[1]Technical_details!$B$1:$E$6,3,FALSE)</f>
         <v>0.99999000000000005</v>
       </c>
-      <c r="K8" s="13" t="str">
+      <c r="K8" s="13">
         <f>VLOOKUP(H8,[1]Technical_details!$B$1:$E$6,4,FALSE)</f>
-        <v>Integration with other systems</v>
+        <v>0</v>
       </c>
       <c r="L8" s="13"/>
     </row>
@@ -17070,9 +17064,9 @@
         <f>VLOOKUP(H9,[1]Technical_details!$B$1:$E$6,3,FALSE)</f>
         <v>0.99999000000000005</v>
       </c>
-      <c r="K9" s="4" t="str">
+      <c r="K9" s="4">
         <f>VLOOKUP(H9,[1]Technical_details!$B$1:$E$6,4,FALSE)</f>
-        <v>Integration with other systems</v>
+        <v>0</v>
       </c>
       <c r="L9" s="4"/>
     </row>
@@ -17084,7 +17078,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -17092,7 +17086,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -17116,7 +17110,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -17124,7 +17118,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -17132,7 +17126,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -17140,7 +17134,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -17148,7 +17142,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -17156,7 +17150,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -17164,7 +17158,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -17172,7 +17166,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -17180,7 +17174,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -17188,7 +17182,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -17196,7 +17190,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -17204,7 +17198,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -17212,7 +17206,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -17220,7 +17214,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -17228,7 +17222,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -17236,7 +17230,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -17244,7 +17238,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -17252,7 +17246,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -17260,7 +17254,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -17268,7 +17262,7 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -17276,7 +17270,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -17284,7 +17278,7 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -17292,7 +17286,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -17300,7 +17294,7 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -17308,7 +17302,7 @@
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -17316,7 +17310,7 @@
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -17324,7 +17318,7 @@
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -17332,7 +17326,7 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -17340,7 +17334,7 @@
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -17348,7 +17342,7 @@
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -17356,7 +17350,7 @@
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -21010,13 +21004,13 @@
   </sheetPr>
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" style="63" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" style="58" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="19" customWidth="1"/>
     <col min="5" max="6" width="43.5" customWidth="1"/>
@@ -21026,7 +21020,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="56" t="s">
         <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -21058,7 +21052,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="80" x14ac:dyDescent="0.2">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="57" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -21105,24 +21099,24 @@
       <c r="E3" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="55" t="s">
         <v>557</v>
       </c>
-      <c r="G3" s="60" t="s">
+      <c r="G3" s="55" t="s">
         <v>556</v>
       </c>
-      <c r="H3" s="60" t="s">
+      <c r="H3" s="55" t="s">
         <v>552</v>
       </c>
-      <c r="I3" s="60" t="s">
+      <c r="I3" s="55" t="s">
         <v>575</v>
       </c>
-      <c r="J3" s="60" t="s">
+      <c r="J3" s="55" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="96" x14ac:dyDescent="0.2">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="57" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="13" t="s">
@@ -21153,7 +21147,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="48" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
         <v>15</v>
       </c>
@@ -21195,7 +21189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04570065-DD19-6F40-951B-A9FDE75943E9}">
   <dimension ref="B3:H60"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K59" sqref="K59"/>
     </sheetView>
   </sheetViews>
@@ -21211,666 +21205,666 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B3" s="68"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
     </row>
     <row r="4" spans="2:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="92" t="s">
         <v>631</v>
       </c>
-      <c r="C4" s="103"/>
+      <c r="C4" s="92"/>
     </row>
     <row r="5" spans="2:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="71" t="s">
+      <c r="C5" s="65" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="65" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="51" x14ac:dyDescent="0.15">
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="64" t="s">
         <v>571</v>
       </c>
-      <c r="C7" s="72" t="s">
+      <c r="C7" s="66" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="34" x14ac:dyDescent="0.15">
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="64" t="s">
         <v>572</v>
       </c>
-      <c r="C8" s="72" t="s">
+      <c r="C8" s="66" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="17" x14ac:dyDescent="0.15">
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="64" t="s">
         <v>564</v>
       </c>
-      <c r="C9" s="73">
+      <c r="C9" s="67">
         <v>98</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="102" t="s">
+      <c r="B10" s="88" t="s">
         <v>619</v>
       </c>
-      <c r="C10" s="73">
+      <c r="C10" s="67">
         <v>7</v>
       </c>
-      <c r="F10" s="69"/>
+      <c r="F10" s="63"/>
     </row>
     <row r="11" spans="2:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="102" t="s">
+      <c r="B11" s="88" t="s">
         <v>565</v>
       </c>
-      <c r="C11" s="80" t="s">
+      <c r="C11" s="74" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="102" t="s">
+      <c r="B12" s="88" t="s">
         <v>630</v>
       </c>
-      <c r="C12" s="72" t="s">
+      <c r="C12" s="66" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="G13" s="74" t="s">
+      <c r="G13" s="68" t="s">
         <v>605</v>
       </c>
-      <c r="H13" s="75" t="s">
+      <c r="H13" s="69" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="B14" s="103" t="s">
+      <c r="B14" s="92" t="s">
         <v>632</v>
       </c>
-      <c r="C14" s="103"/>
-      <c r="G14" s="76" t="s">
+      <c r="C14" s="92"/>
+      <c r="G14" s="70" t="s">
         <v>579</v>
       </c>
-      <c r="H14" s="77">
+      <c r="H14" s="71">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B15" s="70" t="s">
+      <c r="B15" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="71" t="s">
+      <c r="C15" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="G15" s="78" t="s">
+      <c r="G15" s="72" t="s">
         <v>590</v>
       </c>
-      <c r="H15" s="77">
+      <c r="H15" s="71">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B16" s="70" t="s">
+      <c r="B16" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="71" t="s">
+      <c r="C16" s="65" t="s">
         <v>540</v>
       </c>
-      <c r="G16" s="28" t="s">
+      <c r="G16" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="H16" s="66">
+      <c r="H16" s="61">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="34" x14ac:dyDescent="0.15">
-      <c r="B17" s="70" t="s">
+      <c r="B17" s="64" t="s">
         <v>571</v>
       </c>
-      <c r="C17" s="72" t="s">
+      <c r="C17" s="66" t="s">
         <v>577</v>
       </c>
-      <c r="G17" s="28" t="s">
+      <c r="G17" s="27" t="s">
         <v>591</v>
       </c>
-      <c r="H17" s="66">
+      <c r="H17" s="61">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="34" x14ac:dyDescent="0.15">
-      <c r="B18" s="70" t="s">
+      <c r="B18" s="64" t="s">
         <v>572</v>
       </c>
-      <c r="C18" s="72" t="s">
+      <c r="C18" s="66" t="s">
         <v>578</v>
       </c>
-      <c r="G18" s="65" t="s">
+      <c r="G18" s="60" t="s">
         <v>583</v>
       </c>
-      <c r="H18" s="66">
+      <c r="H18" s="61">
         <v>21</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="17" x14ac:dyDescent="0.15">
-      <c r="B19" s="70" t="s">
+      <c r="B19" s="64" t="s">
         <v>564</v>
       </c>
-      <c r="C19" s="73">
+      <c r="C19" s="67">
         <v>430</v>
       </c>
-      <c r="G19" s="28" t="s">
+      <c r="G19" s="27" t="s">
         <v>582</v>
       </c>
-      <c r="H19" s="66">
+      <c r="H19" s="61">
         <v>23</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="102" t="s">
+      <c r="B20" s="88" t="s">
         <v>619</v>
       </c>
-      <c r="C20" s="73">
+      <c r="C20" s="67">
         <v>120</v>
       </c>
-      <c r="G20" s="28" t="s">
+      <c r="G20" s="27" t="s">
         <v>593</v>
       </c>
-      <c r="H20" s="66">
+      <c r="H20" s="61">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="102" t="s">
+      <c r="B21" s="88" t="s">
         <v>565</v>
       </c>
-      <c r="C21" s="80" t="s">
+      <c r="C21" s="74" t="s">
         <v>626</v>
       </c>
       <c r="E21" s="16"/>
-      <c r="G21" s="28" t="s">
+      <c r="G21" s="27" t="s">
         <v>580</v>
       </c>
-      <c r="H21" s="66">
+      <c r="H21" s="61">
         <v>14</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="102" t="s">
+      <c r="B22" s="88" t="s">
         <v>630</v>
       </c>
-      <c r="C22" s="72" t="s">
+      <c r="C22" s="66" t="s">
         <v>606</v>
       </c>
-      <c r="G22" s="65" t="s">
+      <c r="G22" s="60" t="s">
         <v>601</v>
       </c>
-      <c r="H22" s="66">
+      <c r="H22" s="61">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="G23" s="76" t="s">
+      <c r="G23" s="70" t="s">
         <v>599</v>
       </c>
-      <c r="H23" s="77">
+      <c r="H23" s="71">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="B24" s="103" t="s">
+      <c r="B24" s="92" t="s">
         <v>633</v>
       </c>
-      <c r="C24" s="103"/>
-      <c r="G24" s="28" t="s">
+      <c r="C24" s="92"/>
+      <c r="G24" s="27" t="s">
         <v>586</v>
       </c>
-      <c r="H24" s="66">
+      <c r="H24" s="61">
         <v>13</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B25" s="70" t="s">
+      <c r="B25" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="71" t="s">
+      <c r="C25" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="G25" s="28" t="s">
+      <c r="G25" s="27" t="s">
         <v>589</v>
       </c>
-      <c r="H25" s="66">
+      <c r="H25" s="61">
         <v>11</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B26" s="70" t="s">
+      <c r="B26" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="71" t="s">
+      <c r="C26" s="65" t="s">
         <v>539</v>
       </c>
-      <c r="G26" s="65" t="s">
+      <c r="G26" s="60" t="s">
         <v>600</v>
       </c>
-      <c r="H26" s="66">
+      <c r="H26" s="61">
         <v>15</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="51" x14ac:dyDescent="0.15">
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="64" t="s">
         <v>571</v>
       </c>
-      <c r="C27" s="72" t="s">
+      <c r="C27" s="66" t="s">
         <v>607</v>
       </c>
-      <c r="G27" s="78" t="s">
+      <c r="G27" s="72" t="s">
         <v>587</v>
       </c>
-      <c r="H27" s="77">
+      <c r="H27" s="71">
         <v>17</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="34" x14ac:dyDescent="0.15">
-      <c r="B28" s="70" t="s">
+      <c r="B28" s="64" t="s">
         <v>572</v>
       </c>
-      <c r="C28" s="72" t="s">
+      <c r="C28" s="66" t="s">
         <v>608</v>
       </c>
-      <c r="G28" s="78" t="s">
+      <c r="G28" s="72" t="s">
         <v>585</v>
       </c>
-      <c r="H28" s="77">
+      <c r="H28" s="71">
         <v>17</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="70" t="s">
+      <c r="B29" s="64" t="s">
         <v>564</v>
       </c>
-      <c r="C29" s="73">
+      <c r="C29" s="67">
         <v>430</v>
       </c>
-      <c r="G29" s="28" t="s">
+      <c r="G29" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="H29" s="66">
+      <c r="H29" s="61">
         <v>33</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="102" t="s">
+      <c r="B30" s="88" t="s">
         <v>619</v>
       </c>
-      <c r="C30" s="73">
+      <c r="C30" s="67">
         <v>10</v>
       </c>
       <c r="D30" s="16"/>
-      <c r="G30" s="28" t="s">
+      <c r="G30" s="27" t="s">
         <v>597</v>
       </c>
-      <c r="H30" s="66">
+      <c r="H30" s="61">
         <v>18</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="102" t="s">
+      <c r="B31" s="88" t="s">
         <v>565</v>
       </c>
-      <c r="C31" s="81" t="s">
+      <c r="C31" s="75" t="s">
         <v>625</v>
       </c>
-      <c r="G31" s="28" t="s">
+      <c r="G31" s="27" t="s">
         <v>588</v>
       </c>
-      <c r="H31" s="66">
+      <c r="H31" s="61">
         <v>25</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="17" x14ac:dyDescent="0.15">
-      <c r="B32" s="102" t="s">
+      <c r="B32" s="88" t="s">
         <v>630</v>
       </c>
-      <c r="C32" s="72" t="s">
+      <c r="C32" s="66" t="s">
         <v>609</v>
       </c>
-      <c r="G32" s="78" t="s">
+      <c r="G32" s="72" t="s">
         <v>581</v>
       </c>
-      <c r="H32" s="77">
+      <c r="H32" s="71">
         <v>14</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="G33" s="28" t="s">
+      <c r="G33" s="27" t="s">
         <v>595</v>
       </c>
-      <c r="H33" s="66">
+      <c r="H33" s="61">
         <v>21</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="B34" s="104" t="s">
+      <c r="B34" s="93" t="s">
         <v>634</v>
       </c>
-      <c r="C34" s="104"/>
-      <c r="G34" s="28" t="s">
+      <c r="C34" s="93"/>
+      <c r="G34" s="27" t="s">
         <v>584</v>
       </c>
-      <c r="H34" s="66">
+      <c r="H34" s="61">
         <v>20</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B35" s="70" t="s">
+      <c r="B35" s="64" t="s">
         <v>3</v>
       </c>
       <c r="C35" s="13" t="s">
         <v>554</v>
       </c>
-      <c r="G35" s="65" t="s">
+      <c r="G35" s="60" t="s">
         <v>598</v>
       </c>
-      <c r="H35" s="66">
+      <c r="H35" s="61">
         <v>11</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B36" s="70" t="s">
+      <c r="B36" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="71" t="s">
+      <c r="C36" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="D36" s="82"/>
-      <c r="G36" s="76" t="s">
+      <c r="D36" s="76"/>
+      <c r="G36" s="70" t="s">
         <v>596</v>
       </c>
-      <c r="H36" s="77">
+      <c r="H36" s="71">
         <v>15</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="51" x14ac:dyDescent="0.15">
-      <c r="B37" s="70" t="s">
+      <c r="B37" s="64" t="s">
         <v>571</v>
       </c>
-      <c r="C37" s="72" t="s">
+      <c r="C37" s="66" t="s">
         <v>560</v>
       </c>
-      <c r="G37" s="28" t="s">
+      <c r="G37" s="27" t="s">
         <v>592</v>
       </c>
-      <c r="H37" s="66">
+      <c r="H37" s="61">
         <v>13</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="34" x14ac:dyDescent="0.15">
-      <c r="B38" s="70" t="s">
+      <c r="B38" s="64" t="s">
         <v>572</v>
       </c>
-      <c r="C38" s="72" t="s">
+      <c r="C38" s="66" t="s">
         <v>628</v>
       </c>
-      <c r="G38" s="78" t="s">
+      <c r="G38" s="72" t="s">
         <v>594</v>
       </c>
-      <c r="H38" s="77">
+      <c r="H38" s="71">
         <v>9</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="70" t="s">
+      <c r="B39" s="64" t="s">
         <v>564</v>
       </c>
-      <c r="C39" s="73">
+      <c r="C39" s="67">
         <v>98</v>
       </c>
-      <c r="G39" s="79" t="s">
+      <c r="G39" s="73" t="s">
         <v>604</v>
       </c>
-      <c r="H39" s="67">
+      <c r="H39" s="62">
         <v>10</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="102" t="s">
+      <c r="B40" s="88" t="s">
         <v>619</v>
       </c>
-      <c r="C40" s="73">
+      <c r="C40" s="67">
         <v>9</v>
       </c>
       <c r="E40" s="16"/>
     </row>
     <row r="41" spans="2:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="102" t="s">
+      <c r="B41" s="88" t="s">
         <v>565</v>
       </c>
-      <c r="C41" s="83" t="s">
+      <c r="C41" s="77" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="17" x14ac:dyDescent="0.15">
-      <c r="B42" s="102" t="s">
+      <c r="B42" s="88" t="s">
         <v>630</v>
       </c>
-      <c r="C42" s="72" t="s">
+      <c r="C42" s="66" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="43" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D43" s="109" t="s">
+      <c r="D43" s="95" t="s">
         <v>635</v>
       </c>
-      <c r="E43" s="109"/>
-      <c r="F43" s="109"/>
-      <c r="G43" s="109"/>
-      <c r="H43" s="109"/>
+      <c r="E43" s="95"/>
+      <c r="F43" s="95"/>
+      <c r="G43" s="95"/>
+      <c r="H43" s="95"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D44" s="105" t="s">
+      <c r="D44" s="89" t="s">
         <v>571</v>
       </c>
-      <c r="E44" s="106" t="s">
+      <c r="E44" s="90" t="s">
         <v>612</v>
       </c>
-      <c r="F44" s="106" t="s">
+      <c r="F44" s="90" t="s">
         <v>613</v>
       </c>
-      <c r="G44" s="106" t="s">
+      <c r="G44" s="90" t="s">
         <v>564</v>
       </c>
-      <c r="H44" s="107" t="s">
+      <c r="H44" s="91" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D45" s="65" t="s">
+      <c r="D45" s="60" t="s">
         <v>614</v>
       </c>
-      <c r="E45" s="84">
+      <c r="E45" s="78">
         <v>0.92859999999999998</v>
       </c>
-      <c r="F45" s="27">
+      <c r="F45" s="26">
         <v>7</v>
       </c>
-      <c r="G45" s="27">
+      <c r="G45" s="26">
         <v>98</v>
       </c>
-      <c r="H45" s="85" t="s">
+      <c r="H45" s="79" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D46" s="65" t="s">
+      <c r="D46" s="60" t="s">
         <v>615</v>
       </c>
-      <c r="E46" s="84">
+      <c r="E46" s="78">
         <v>0.90820000000000001</v>
       </c>
-      <c r="F46" s="27">
+      <c r="F46" s="26">
         <v>9</v>
       </c>
-      <c r="G46" s="27">
+      <c r="G46" s="26">
         <v>98</v>
       </c>
-      <c r="H46" s="85" t="s">
+      <c r="H46" s="79" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D47" s="65" t="s">
+      <c r="D47" s="60" t="s">
         <v>616</v>
       </c>
-      <c r="E47" s="84">
+      <c r="E47" s="78">
         <v>0.72089999999999999</v>
       </c>
-      <c r="F47" s="27">
+      <c r="F47" s="26">
         <v>120</v>
       </c>
-      <c r="G47" s="27">
+      <c r="G47" s="26">
         <v>430</v>
       </c>
-      <c r="H47" s="85" t="s">
+      <c r="H47" s="79" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D48" s="65" t="s">
+      <c r="D48" s="60" t="s">
         <v>617</v>
       </c>
-      <c r="E48" s="84">
+      <c r="E48" s="78">
         <v>0.97670000000000001</v>
       </c>
-      <c r="F48" s="27">
+      <c r="F48" s="26">
         <v>10</v>
       </c>
-      <c r="G48" s="27">
+      <c r="G48" s="26">
         <v>430</v>
       </c>
-      <c r="H48" s="85" t="s">
+      <c r="H48" s="79" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="49" spans="2:8" ht="34" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D49" s="86" t="s">
+      <c r="D49" s="80" t="s">
         <v>258</v>
       </c>
-      <c r="E49" s="110" t="s">
+      <c r="E49" s="96" t="s">
         <v>618</v>
       </c>
-      <c r="F49" s="111"/>
-      <c r="G49" s="111"/>
-      <c r="H49" s="112"/>
+      <c r="F49" s="97"/>
+      <c r="G49" s="97"/>
+      <c r="H49" s="98"/>
     </row>
     <row r="50" spans="2:8" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D50" s="87" t="s">
+      <c r="D50" s="81" t="s">
         <v>620</v>
       </c>
-      <c r="E50" s="88" t="s">
+      <c r="E50" s="99" t="s">
         <v>609</v>
       </c>
-      <c r="F50" s="88"/>
-      <c r="G50" s="88"/>
-      <c r="H50" s="89"/>
+      <c r="F50" s="99"/>
+      <c r="G50" s="99"/>
+      <c r="H50" s="100"/>
     </row>
     <row r="53" spans="2:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="B53" s="108" t="s">
+      <c r="B53" s="94" t="s">
         <v>636</v>
       </c>
-      <c r="C53" s="108"/>
-      <c r="D53" s="108"/>
-      <c r="E53" s="108"/>
+      <c r="C53" s="94"/>
+      <c r="D53" s="94"/>
+      <c r="E53" s="94"/>
     </row>
     <row r="54" spans="2:8" ht="16" x14ac:dyDescent="0.15">
-      <c r="B54" s="92" t="s">
+      <c r="B54" s="101" t="s">
         <v>621</v>
       </c>
-      <c r="C54" s="93"/>
-      <c r="D54" s="93"/>
-      <c r="E54" s="94"/>
+      <c r="C54" s="102"/>
+      <c r="D54" s="102"/>
+      <c r="E54" s="103"/>
     </row>
     <row r="55" spans="2:8" ht="16" x14ac:dyDescent="0.15">
-      <c r="B55" s="95" t="s">
+      <c r="B55" s="104" t="s">
         <v>622</v>
       </c>
-      <c r="C55" s="96"/>
-      <c r="D55" s="96"/>
-      <c r="E55" s="97"/>
+      <c r="C55" s="105"/>
+      <c r="D55" s="105"/>
+      <c r="E55" s="106"/>
     </row>
     <row r="56" spans="2:8" ht="16" x14ac:dyDescent="0.15">
-      <c r="B56" s="95" t="s">
+      <c r="B56" s="104" t="s">
         <v>623</v>
       </c>
-      <c r="C56" s="96"/>
-      <c r="D56" s="96"/>
-      <c r="E56" s="97"/>
+      <c r="C56" s="105"/>
+      <c r="D56" s="105"/>
+      <c r="E56" s="106"/>
     </row>
     <row r="57" spans="2:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="B57" s="98"/>
-      <c r="C57" s="100" t="s">
+      <c r="B57" s="84"/>
+      <c r="C57" s="86" t="s">
         <v>539</v>
       </c>
-      <c r="D57" s="100" t="s">
+      <c r="D57" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="E57" s="100" t="s">
+      <c r="E57" s="86" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="58" spans="2:8" ht="35" x14ac:dyDescent="0.35">
-      <c r="B58" s="98" t="s">
+      <c r="B58" s="84" t="s">
         <v>278</v>
       </c>
-      <c r="C58" s="90" t="s">
+      <c r="C58" s="82" t="s">
         <v>566</v>
       </c>
-      <c r="D58" s="91" t="s">
+      <c r="D58" s="83" t="s">
         <v>566</v>
       </c>
-      <c r="E58" s="91" t="s">
+      <c r="E58" s="83" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="59" spans="2:8" ht="35" x14ac:dyDescent="0.35">
-      <c r="B59" s="98" t="s">
+      <c r="B59" s="84" t="s">
         <v>610</v>
       </c>
-      <c r="C59" s="91" t="s">
+      <c r="C59" s="83" t="s">
         <v>566</v>
       </c>
-      <c r="D59" s="90" t="s">
+      <c r="D59" s="82" t="s">
         <v>566</v>
       </c>
-      <c r="E59" s="91" t="s">
+      <c r="E59" s="83" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="60" spans="2:8" ht="35" x14ac:dyDescent="0.35">
-      <c r="B60" s="99" t="s">
+      <c r="B60" s="85" t="s">
         <v>611</v>
       </c>
-      <c r="C60" s="91" t="s">
+      <c r="C60" s="83" t="s">
         <v>566</v>
       </c>
-      <c r="D60" s="101" t="s">
+      <c r="D60" s="87" t="s">
         <v>566</v>
       </c>
-      <c r="E60" s="91" t="s">
+      <c r="E60" s="83" t="s">
         <v>566</v>
       </c>
     </row>
@@ -21879,6 +21873,11 @@
     <sortCondition ref="G14:G38"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B3:H3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B34:C34"/>
@@ -21886,11 +21885,6 @@
     <mergeCell ref="D43:H43"/>
     <mergeCell ref="E49:H49"/>
     <mergeCell ref="E50:H50"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21927,7 +21921,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -21941,49 +21935,49 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -22016,242 +22010,242 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="109" t="s">
         <v>241</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
-      <c r="F1" s="44" t="s">
+      <c r="C1" s="110"/>
+      <c r="D1" s="111"/>
+      <c r="F1" s="109" t="s">
         <v>268</v>
       </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="46"/>
-      <c r="J1" s="41" t="s">
+      <c r="G1" s="110"/>
+      <c r="H1" s="111"/>
+      <c r="J1" s="112" t="s">
         <v>63</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="112" t="s">
         <v>254</v>
       </c>
-      <c r="L1" s="41"/>
+      <c r="L1" s="112"/>
     </row>
     <row r="2" spans="2:16" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="31" t="s">
         <v>261</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="40" t="s">
         <v>263</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="40" t="s">
         <v>264</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="31" t="s">
         <v>261</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="40" t="s">
         <v>263</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="H2" s="40" t="s">
         <v>264</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="31" t="s">
         <v>261</v>
       </c>
-      <c r="K2" s="42" t="s">
+      <c r="K2" s="40" t="s">
         <v>263</v>
       </c>
-      <c r="L2" s="42" t="s">
+      <c r="L2" s="40" t="s">
         <v>264</v>
       </c>
-      <c r="N2" s="47" t="s">
+      <c r="N2" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="P2" s="48" t="s">
+      <c r="P2" s="43" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="3" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="35"/>
-      <c r="C3" s="42" t="s">
+      <c r="B3" s="34"/>
+      <c r="C3" s="40" t="s">
         <v>255</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="43" t="s">
+      <c r="F3" s="32"/>
+      <c r="G3" s="41" t="s">
         <v>255</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="H3" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="J3" s="33"/>
-      <c r="K3" s="43" t="s">
+      <c r="J3" s="32"/>
+      <c r="K3" s="41" t="s">
         <v>255</v>
       </c>
-      <c r="L3" s="37" t="s">
+      <c r="L3" s="36" t="s">
         <v>177</v>
       </c>
       <c r="O3" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="P3" s="29" t="s">
+      <c r="P3" s="28" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="4" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="40" t="s">
         <v>256</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="38" t="s">
         <v>231</v>
       </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="34" t="s">
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="32" t="s">
+      <c r="J4" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="K4" s="43" t="s">
+      <c r="K4" s="41" t="s">
         <v>256</v>
       </c>
-      <c r="L4" s="34" t="s">
+      <c r="L4" s="33" t="s">
         <v>179</v>
       </c>
       <c r="O4" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="P4" s="29" t="s">
+      <c r="P4" s="28" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="32"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="37" t="s">
+      <c r="B5" s="31"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="37" t="s">
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="J5" s="42" t="s">
+      <c r="J5" s="40" t="s">
         <v>266</v>
       </c>
-      <c r="K5" s="43" t="s">
+      <c r="K5" s="41" t="s">
         <v>256</v>
       </c>
-      <c r="L5" s="37" t="s">
+      <c r="L5" s="36" t="s">
         <v>180</v>
       </c>
       <c r="O5" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="P5" s="29" t="s">
+      <c r="P5" s="28" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="32"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34" t="s">
+      <c r="B6" s="31"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="33" t="s">
         <v>233</v>
       </c>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="34" t="s">
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="34" t="s">
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="33" t="s">
         <v>181</v>
       </c>
       <c r="O6" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="P6" s="29" t="s">
+      <c r="P6" s="28" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="35"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="37" t="s">
+      <c r="B7" s="34"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="36" t="s">
         <v>234</v>
       </c>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="37" t="s">
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="37" t="s">
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="36" t="s">
         <v>183</v>
       </c>
       <c r="O7" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="P7" s="29" t="s">
+      <c r="P7" s="28" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="35"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="34" t="s">
+      <c r="B8" s="34"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="34" t="s">
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="34" t="s">
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="33" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="32"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="37" t="s">
+      <c r="B9" s="31"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="36" t="s">
         <v>236</v>
       </c>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="37" t="s">
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="N9" s="26" t="s">
+      <c r="N9" s="25" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="40" t="s">
         <v>256</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="38" t="s">
         <v>237</v>
       </c>
-      <c r="F10" s="44" t="s">
+      <c r="F10" s="109" t="s">
         <v>106</v>
       </c>
-      <c r="G10" s="45"/>
-      <c r="H10" s="46"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="34" t="s">
+      <c r="G10" s="110"/>
+      <c r="H10" s="111"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="33" t="s">
         <v>189</v>
       </c>
       <c r="O10" s="14" t="s">
@@ -22262,23 +22256,23 @@
       </c>
     </row>
     <row r="11" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="35"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="37" t="s">
+      <c r="B11" s="34"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="36" t="s">
         <v>238</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="31" t="s">
         <v>261</v>
       </c>
-      <c r="G11" s="42" t="s">
+      <c r="G11" s="40" t="s">
         <v>263</v>
       </c>
-      <c r="H11" s="42" t="s">
+      <c r="H11" s="40" t="s">
         <v>264</v>
       </c>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="37" t="s">
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="36" t="s">
         <v>191</v>
       </c>
       <c r="O11" s="14" t="s">
@@ -22289,21 +22283,21 @@
       </c>
     </row>
     <row r="12" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="35"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34" t="s">
+      <c r="B12" s="34"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="33" t="s">
         <v>239</v>
       </c>
-      <c r="F12" s="32"/>
-      <c r="G12" s="30" t="s">
+      <c r="F12" s="31"/>
+      <c r="G12" s="29" t="s">
         <v>255</v>
       </c>
-      <c r="H12" s="31" t="s">
+      <c r="H12" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="34" t="s">
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="33" t="s">
         <v>193</v>
       </c>
       <c r="O12" s="14" t="s">
@@ -22314,9 +22308,9 @@
       </c>
     </row>
     <row r="13" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="F13" s="35"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="34" t="s">
+      <c r="F13" s="34"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="33" t="s">
         <v>95</v>
       </c>
       <c r="O13" s="14" t="s">
@@ -22327,48 +22321,48 @@
       </c>
     </row>
     <row r="14" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="109" t="s">
         <v>176</v>
       </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="46"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="37" t="s">
+      <c r="C14" s="110"/>
+      <c r="D14" s="111"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="J14" s="44" t="s">
+      <c r="J14" s="109" t="s">
         <v>214</v>
       </c>
-      <c r="K14" s="45"/>
-      <c r="L14" s="46"/>
+      <c r="K14" s="110"/>
+      <c r="L14" s="111"/>
     </row>
     <row r="15" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="31" t="s">
         <v>261</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="40" t="s">
         <v>263</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="D15" s="40" t="s">
         <v>264</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="F15" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="G15" s="38" t="s">
+      <c r="G15" s="37" t="s">
         <v>256</v>
       </c>
-      <c r="H15" s="39" t="s">
+      <c r="H15" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="J15" s="32" t="s">
+      <c r="J15" s="31" t="s">
         <v>261</v>
       </c>
-      <c r="K15" s="42" t="s">
+      <c r="K15" s="40" t="s">
         <v>263</v>
       </c>
-      <c r="L15" s="42" t="s">
+      <c r="L15" s="40" t="s">
         <v>264</v>
       </c>
       <c r="N15" s="14" t="s">
@@ -22376,20 +22370,20 @@
       </c>
     </row>
     <row r="16" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="35"/>
-      <c r="C16" s="42" t="s">
+      <c r="B16" s="34"/>
+      <c r="C16" s="40" t="s">
         <v>255</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="D16" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="J16" s="42" t="s">
+      <c r="J16" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="K16" s="38" t="s">
+      <c r="K16" s="37" t="s">
         <v>265</v>
       </c>
-      <c r="L16" s="37" t="s">
+      <c r="L16" s="36" t="s">
         <v>208</v>
       </c>
       <c r="O16" s="14" t="s">
@@ -22400,232 +22394,232 @@
       </c>
     </row>
     <row r="17" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="C17" s="40" t="s">
         <v>256</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="F17" s="44" t="s">
+      <c r="F17" s="109" t="s">
         <v>262</v>
       </c>
-      <c r="G17" s="45"/>
-      <c r="H17" s="46"/>
-      <c r="J17" s="42" t="s">
+      <c r="G17" s="110"/>
+      <c r="H17" s="111"/>
+      <c r="J17" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="K17" s="38" t="s">
+      <c r="K17" s="37" t="s">
         <v>265</v>
       </c>
-      <c r="L17" s="34" t="s">
+      <c r="L17" s="33" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="18" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="C18" s="40" t="s">
         <v>256</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="F18" s="32" t="s">
+      <c r="F18" s="31" t="s">
         <v>261</v>
       </c>
-      <c r="G18" s="42" t="s">
+      <c r="G18" s="40" t="s">
         <v>263</v>
       </c>
-      <c r="H18" s="42" t="s">
+      <c r="H18" s="40" t="s">
         <v>264</v>
       </c>
-      <c r="J18" s="33"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="37" t="s">
+      <c r="J18" s="32"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="36" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="19" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="32"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="37" t="s">
+      <c r="B19" s="31"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="F19" s="35"/>
-      <c r="G19" s="42" t="s">
+      <c r="F19" s="34"/>
+      <c r="G19" s="40" t="s">
         <v>255</v>
       </c>
-      <c r="H19" s="31" t="s">
+      <c r="H19" s="30" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="20" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="35"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34" t="s">
+      <c r="B20" s="34"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="F20" s="40"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="34" t="s">
+      <c r="F20" s="39"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="J20" s="41" t="s">
+      <c r="J20" s="112" t="s">
         <v>223</v>
       </c>
-      <c r="K20" s="41" t="s">
+      <c r="K20" s="112" t="s">
         <v>254</v>
       </c>
-      <c r="L20" s="41"/>
+      <c r="L20" s="112"/>
     </row>
     <row r="21" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="35"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="37" t="s">
+      <c r="B21" s="34"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="F21" s="32" t="s">
+      <c r="F21" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="G21" s="42" t="s">
+      <c r="G21" s="40" t="s">
         <v>256</v>
       </c>
-      <c r="H21" s="31" t="s">
+      <c r="H21" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="J21" s="32" t="s">
+      <c r="J21" s="31" t="s">
         <v>261</v>
       </c>
-      <c r="K21" s="42" t="s">
+      <c r="K21" s="40" t="s">
         <v>263</v>
       </c>
-      <c r="L21" s="42" t="s">
+      <c r="L21" s="40" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="22" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="32"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="34" t="s">
+      <c r="B22" s="31"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="F22" s="32"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="34" t="s">
+      <c r="F22" s="31"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="J22" s="33"/>
-      <c r="K22" s="43" t="s">
+      <c r="J22" s="32"/>
+      <c r="K22" s="41" t="s">
         <v>255</v>
       </c>
-      <c r="L22" s="34" t="s">
+      <c r="L22" s="33" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="23" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="32"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="37" t="s">
+      <c r="B23" s="31"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="F23" s="35"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="37" t="s">
+      <c r="F23" s="34"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="J23" s="42" t="s">
+      <c r="J23" s="40" t="s">
         <v>267</v>
       </c>
-      <c r="K23" s="43" t="s">
+      <c r="K23" s="41" t="s">
         <v>256</v>
       </c>
-      <c r="L23" s="37" t="s">
+      <c r="L23" s="36" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="24" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="35"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="34" t="s">
+      <c r="B24" s="34"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="F24" s="35"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="34" t="s">
+      <c r="F24" s="34"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="34" t="s">
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="33" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="25" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="35"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="37" t="s">
+      <c r="B25" s="34"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="F25" s="32"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="37" t="s">
+      <c r="F25" s="31"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="37" t="s">
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="36" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="26" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="32"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="34" t="s">
+      <c r="B26" s="31"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="F26" s="32"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="34" t="s">
+      <c r="F26" s="31"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="34" t="s">
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="33" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="27" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="35"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="37" t="s">
+      <c r="B27" s="34"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="F27" s="35"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="37" t="s">
+      <c r="F27" s="34"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="36" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="28" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="40"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="34" t="s">
+      <c r="B28" s="39"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="F28" s="35"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="34" t="s">
+      <c r="F28" s="34"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="33" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="29" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="F29" s="32"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="37" t="s">
+      <c r="F29" s="31"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="36" t="s">
         <v>123</v>
       </c>
     </row>
@@ -22671,7 +22665,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -22682,42 +22676,42 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
